--- a/backbase.qa/TestData/BBTestDataProvider.xlsx
+++ b/backbase.qa/TestData/BBTestDataProvider.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Selenium\Backbase\Workspace\backbase.qa\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\git\Assignment\backbase.qa\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421400CF-CC46-4377-B55B-84D4DC464DDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F34BF0D-3B6D-4914-8C6D-2D1C3353A530}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{BC113BEA-2BF5-495D-ACA6-8945E9E33DB9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Company</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Commodore International</t>
+  </si>
+  <si>
+    <t>Aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaabbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbccccccccccccccccccccccccccccccccccccccccccccccddddddddddddddddddddddddddddddddddddddddeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeffffffffffffffffffffffffffffffffffffffffggggggggggggggggggggggggggggghhhhhhhhhhhhhhhhhhhhhhhhhhhiiiiiiiiiiiiiiiiiiiiiiiiiiiiii11111111111111111111@@@@@@@@@@@99999999999&lt;&lt;&lt;&lt;&lt;&lt;&gt;&gt;&gt;&gt;&gt;////////?:”{}[]=_`~!@#$%^&amp;*()_+:{}”?&gt;&lt;[];’,./1234567890wwwwwwwwwwwwwqqqTTTTTTTTTTTTTIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIIRRRRRRRRRRRRRRRRREEEEEEEEEEE</t>
   </si>
 </sst>
 </file>
@@ -450,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0768EB-1096-4701-963D-861F2A8DAB7C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="42.08984375" customWidth="1"/>
@@ -602,6 +605,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2958464</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2958465</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
